--- a/output/Variable_correlations_AICc_Era1_for_paper.xlsx
+++ b/output/Variable_correlations_AICc_Era1_for_paper.xlsx
@@ -19,45 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
-    <t>ReproductiveFemales</t>
+    <t>Bairdi females</t>
   </si>
   <si>
-    <t>logRS</t>
+    <t>Pacific cod</t>
   </si>
   <si>
-    <t>Ovig_female_CO</t>
+    <t>FHS TBM RA2</t>
   </si>
   <si>
-    <t>PCod_RA2</t>
+    <t>FHS TBM</t>
   </si>
   <si>
-    <t>PCod_RA3</t>
+    <t>Opilio females</t>
   </si>
   <si>
-    <t>FHS_lag2</t>
+    <t xml:space="preserve">PDO_RA3 </t>
   </si>
   <si>
-    <t>FHS_RA2</t>
+    <t>SST MJ</t>
   </si>
   <si>
-    <t>NBT_3RA</t>
+    <t>AO RA3</t>
   </si>
   <si>
-    <t>SE.wind</t>
+    <t>NBT RA3</t>
   </si>
   <si>
-    <t>AO_RA3</t>
+    <t>SE wind</t>
   </si>
   <si>
-    <t>PDO_RA3</t>
+    <t>NE wind</t>
   </si>
   <si>
-    <t>SST_May_July</t>
-  </si>
-  <si>
-    <t>NE.wind</t>
+    <t>PDO RA3</t>
   </si>
 </sst>
 </file>
@@ -200,7 +197,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -382,19 +379,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,12 +544,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -886,629 +869,481 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection sqref="A1:L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="7.21875" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="G1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>-0.80299549044419805</v>
+        <v>-0.22340595971879301</v>
       </c>
       <c r="D2" s="1">
+        <v>0.20508830411297499</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.172541418206167</v>
+      </c>
+      <c r="F2" s="1">
         <v>0.24507248629216299</v>
       </c>
-      <c r="E2" s="1">
-        <v>-0.37551652983025802</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
+        <v>-0.70693301697920596</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0.16553209740319699</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.55391789879235698</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-0.23144582966131</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.17271690410853499</v>
+      </c>
+      <c r="L2" s="1">
+        <v>-0.29715961863121698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
         <v>-0.22340595971879301</v>
-      </c>
-      <c r="G2" s="1">
-        <v>0.172541418206167</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.20508830411297499</v>
-      </c>
-      <c r="I2" s="1">
-        <v>-0.23144582966131</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0.17271690410853499</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0.55391789879235698</v>
-      </c>
-      <c r="L2" s="2">
-        <v>-0.70693301697920596</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0.16553209740319699</v>
-      </c>
-      <c r="N2" s="1">
-        <v>-0.29715961863121698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>-0.80299549044419805</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>-0.39350868591781601</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.40754454675080198</v>
+        <v>-0.38878636791652599</v>
+      </c>
+      <c r="E3" s="1">
+        <v>-0.47704925716941798</v>
       </c>
       <c r="F3" s="1">
-        <v>0.14929961075359</v>
+        <v>-0.41208442896540898</v>
       </c>
       <c r="G3" s="1">
-        <v>-0.32703937236361502</v>
-      </c>
-      <c r="H3" s="3">
-        <v>-0.44149911357087201</v>
+        <v>0.31595131321429798</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.16148964260516799</v>
       </c>
       <c r="I3" s="1">
-        <v>-1.7121269367414298E-2</v>
+        <v>-0.59078523494187796</v>
       </c>
       <c r="J3" s="1">
-        <v>-4.4512658022144602E-2</v>
+        <v>0.212663448855513</v>
       </c>
       <c r="K3" s="1">
-        <v>-0.51064391997896597</v>
+        <v>-0.231990363881383</v>
       </c>
       <c r="L3" s="1">
-        <v>0.75914984870416702</v>
-      </c>
-      <c r="M3" s="1">
-        <v>-0.36665564076152302</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0.27296038559656899</v>
+        <v>-8.0499295676102894E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.24507248629216299</v>
+        <v>0.20508830411297499</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.39350868591781601</v>
+        <v>-0.38878636791652599</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>-0.38154798350984498</v>
-      </c>
-      <c r="F4" s="3">
-        <v>-0.41208442896540898</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0.64768497533026803</v>
-      </c>
-      <c r="H4" s="4">
+        <v>0.96786050869876294</v>
+      </c>
+      <c r="F4" s="1">
         <v>0.72251336065076699</v>
       </c>
+      <c r="G4" s="1">
+        <v>-0.707298244453615</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-5.2490700066583101E-2</v>
+      </c>
       <c r="I4" s="1">
-        <v>0.24571348226494</v>
+        <v>0.71964379473709295</v>
       </c>
       <c r="J4" s="1">
-        <v>0.21269358235805</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0.453539170679499</v>
-      </c>
-      <c r="L4" s="2">
-        <v>-0.61178446535253805</v>
-      </c>
-      <c r="M4" s="1">
-        <v>-7.8836027162311903E-2</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0.114318986140007</v>
+        <v>-0.32759214721264202</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.27362862569562002</v>
+      </c>
+      <c r="L4" s="1">
+        <v>3.2889607442615598E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>-0.37551652983025802</v>
+        <v>0.172541418206167</v>
       </c>
       <c r="C5" s="1">
-        <v>0.40754454675080198</v>
+        <v>-0.47704925716941798</v>
       </c>
       <c r="D5" s="1">
-        <v>-0.38154798350984498</v>
+        <v>0.96786050869876294</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0.90068194564630399</v>
-      </c>
-      <c r="G5" s="3">
-        <v>-0.46795990781161101</v>
+        <v>0.64768497533026803</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-0.57482940230962698</v>
       </c>
       <c r="H5" s="1">
-        <v>-0.351656337272647</v>
+        <v>-0.38252006509334002</v>
       </c>
       <c r="I5" s="1">
-        <v>0.102080048797937</v>
+        <v>0.66866164555897301</v>
       </c>
       <c r="J5" s="1">
-        <v>-3.6476120917991801E-2</v>
-      </c>
-      <c r="K5" s="2">
-        <v>-0.57846841923433101</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0.46209318042445002</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.12905749927608701</v>
-      </c>
-      <c r="N5" s="1">
-        <v>-9.4937052378507705E-2</v>
+        <v>-0.44794427921426</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.110842267536094</v>
+      </c>
+      <c r="L5" s="1">
+        <v>7.5869355411817802E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>-0.22340595971879301</v>
+        <v>0.24507248629216299</v>
       </c>
       <c r="C6" s="1">
-        <v>0.14929961075359</v>
-      </c>
-      <c r="D6" s="3">
         <v>-0.41208442896540898</v>
       </c>
+      <c r="D6" s="1">
+        <v>0.72251336065076699</v>
+      </c>
       <c r="E6" s="1">
-        <v>0.90068194564630399</v>
+        <v>0.64768497533026803</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>-0.47704925716941798</v>
+      <c r="G6" s="1">
+        <v>-0.61178446535253805</v>
       </c>
       <c r="H6" s="1">
-        <v>-0.38878636791652599</v>
+        <v>-7.8836027162311903E-2</v>
       </c>
       <c r="I6" s="1">
-        <v>0.212663448855513</v>
+        <v>0.453539170679499</v>
       </c>
       <c r="J6" s="1">
-        <v>-0.231990363881383</v>
-      </c>
-      <c r="K6" s="2">
-        <v>-0.59078523494187796</v>
+        <v>0.24571348226494</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.21269358235805</v>
       </c>
       <c r="L6" s="1">
+        <v>0.114318986140007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-0.70693301697920596</v>
+      </c>
+      <c r="C7" s="1">
         <v>0.31595131321429798</v>
       </c>
-      <c r="M6" s="1">
-        <v>0.16148964260516799</v>
-      </c>
-      <c r="N6" s="1">
-        <v>-8.0499295676102894E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.172541418206167</v>
-      </c>
-      <c r="C7" s="1">
-        <v>-0.32703937236361502</v>
-      </c>
-      <c r="D7" s="4">
-        <v>0.64768497533026803</v>
-      </c>
-      <c r="E7" s="3">
-        <v>-0.46795990781161101</v>
-      </c>
-      <c r="F7" s="3">
-        <v>-0.47704925716941798</v>
+      <c r="D7" s="1">
+        <v>-0.707298244453615</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-0.57482940230962698</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.61178446535253805</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
       </c>
       <c r="H7" s="1">
-        <v>0.96786050869876294</v>
-      </c>
-      <c r="I7" s="3">
-        <v>-0.44794427921426</v>
+        <v>5.4432101753386104E-3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.72756830288603902</v>
       </c>
       <c r="J7" s="1">
-        <v>0.110842267536094</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.66866164555897301</v>
-      </c>
-      <c r="L7" s="2">
-        <v>-0.57482940230962698</v>
-      </c>
-      <c r="M7" s="1">
+        <v>0.161937637636038</v>
+      </c>
+      <c r="K7" s="1">
+        <v>-1.0700057426451399E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.11534585868527999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.16553209740319699</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.16148964260516799</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-5.2490700066583101E-2</v>
+      </c>
+      <c r="E8" s="1">
         <v>-0.38252006509334002</v>
       </c>
-      <c r="N7" s="1">
-        <v>7.5869355411817802E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.20508830411297499</v>
-      </c>
-      <c r="C8" s="1">
-        <v>-0.44149911357087201</v>
-      </c>
-      <c r="D8" s="4">
-        <v>0.72251336065076699</v>
-      </c>
-      <c r="E8" s="1">
-        <v>-0.351656337272647</v>
-      </c>
       <c r="F8" s="1">
-        <v>-0.38878636791652599</v>
+        <v>-7.8836027162311903E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>0.96786050869876294</v>
+        <v>5.4432101753386104E-3</v>
       </c>
       <c r="H8" s="1">
         <v>1</v>
       </c>
       <c r="I8" s="1">
-        <v>-0.32759214721264202</v>
+        <v>-6.1146088747856403E-2</v>
       </c>
       <c r="J8" s="1">
-        <v>0.27362862569562002</v>
-      </c>
-      <c r="K8" s="4">
+        <v>0.325880456745269</v>
+      </c>
+      <c r="K8" s="1">
+        <v>7.3923906775444304E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>-0.35311686153729099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.55391789879235698</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.59078523494187796</v>
+      </c>
+      <c r="D9" s="1">
         <v>0.71964379473709295</v>
       </c>
-      <c r="L8" s="4">
-        <v>-0.707298244453615</v>
-      </c>
-      <c r="M8" s="1">
-        <v>-5.2490700066583101E-2</v>
-      </c>
-      <c r="N8" s="1">
-        <v>3.2889607442615598E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1">
-        <v>-0.23144582966131</v>
-      </c>
-      <c r="C9" s="1">
-        <v>-1.7121269367414298E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.24571348226494</v>
-      </c>
       <c r="E9" s="1">
-        <v>0.102080048797937</v>
+        <v>0.66866164555897301</v>
       </c>
       <c r="F9" s="1">
-        <v>0.212663448855513</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-0.44794427921426</v>
+        <v>0.453539170679499</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-0.72756830288603902</v>
       </c>
       <c r="H9" s="1">
-        <v>-0.32759214721264202</v>
+        <v>-6.1146088747856403E-2</v>
       </c>
       <c r="I9" s="1">
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>-0.129995031806204</v>
-      </c>
-      <c r="K9" s="2">
         <v>-0.64681952533243203</v>
       </c>
+      <c r="K9" s="1">
+        <v>5.4436181256119001E-2</v>
+      </c>
       <c r="L9" s="1">
+        <v>-0.30605279814150899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1">
+        <v>-0.23144582966131</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.212663448855513</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-0.32759214721264202</v>
+      </c>
+      <c r="E10" s="1">
+        <v>-0.44794427921426</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0.24571348226494</v>
+      </c>
+      <c r="G10" s="1">
         <v>0.161937637636038</v>
       </c>
-      <c r="M9" s="1">
+      <c r="H10" s="1">
         <v>0.325880456745269</v>
       </c>
-      <c r="N9" s="1">
-        <v>0.42567118093025302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0.17271690410853499</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-4.4512658022144602E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0.21269358235805</v>
-      </c>
-      <c r="E10" s="1">
-        <v>-3.6476120917991801E-2</v>
-      </c>
-      <c r="F10" s="1">
-        <v>-0.231990363881383</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0.110842267536094</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0.27362862569562002</v>
-      </c>
       <c r="I10" s="1">
-        <v>-0.129995031806204</v>
+        <v>-0.64681952533243203</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="1">
+        <v>-0.129995031806204</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.42567118093025302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.17271690410853499</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-0.231990363881383</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.27362862569562002</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.110842267536094</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0.21269358235805</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-1.0700057426451399E-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7.3923906775444304E-2</v>
+      </c>
+      <c r="I11" s="1">
         <v>5.4436181256119001E-2</v>
       </c>
-      <c r="L10" s="1">
-        <v>-1.0700057426451399E-2</v>
-      </c>
-      <c r="M10" s="1">
-        <v>7.3923906775444304E-2</v>
-      </c>
-      <c r="N10" s="1">
-        <v>9.6134343157274496E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.55391789879235698</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-0.51064391997896597</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.453539170679499</v>
-      </c>
-      <c r="E11" s="2">
-        <v>-0.57846841923433101</v>
-      </c>
-      <c r="F11" s="2">
-        <v>-0.59078523494187796</v>
-      </c>
-      <c r="G11" s="2">
-        <v>0.66866164555897301</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.71964379473709295</v>
-      </c>
-      <c r="I11" s="2">
-        <v>-0.64681952533243203</v>
-      </c>
       <c r="J11" s="1">
-        <v>5.4436181256119001E-2</v>
+        <v>-0.129995031806204</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
-      <c r="L11" s="4">
-        <v>-0.72756830288603902</v>
-      </c>
-      <c r="M11" s="1">
-        <v>-6.1146088747856403E-2</v>
-      </c>
-      <c r="N11" s="1">
+      <c r="L11" s="1">
+        <v>9.6134343157274496E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1">
+        <v>-0.29715961863121698</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-8.0499295676102894E-2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3.2889607442615598E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7.5869355411817802E-2</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0.114318986140007</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0.11534585868527999</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-0.35311686153729099</v>
+      </c>
+      <c r="I12" s="1">
         <v>-0.30605279814150899</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1">
-        <v>-0.70693301697920596</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.75914984870416702</v>
-      </c>
-      <c r="D12" s="2">
-        <v>-0.61178446535253805</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0.46209318042445002</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0.31595131321429798</v>
-      </c>
-      <c r="G12" s="2">
-        <v>-0.57482940230962698</v>
-      </c>
-      <c r="H12" s="4">
-        <v>-0.707298244453615</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0.161937637636038</v>
-      </c>
       <c r="J12" s="1">
-        <v>-1.0700057426451399E-2</v>
-      </c>
-      <c r="K12" s="4">
-        <v>-0.72756830288603902</v>
+        <v>0.42567118093025302</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9.6134343157274496E-2</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
       </c>
-      <c r="M12" s="1">
-        <v>5.4432101753386104E-3</v>
-      </c>
-      <c r="N12" s="1">
-        <v>0.11534585868527999</v>
-      </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="1">
-        <v>0.16553209740319699</v>
-      </c>
-      <c r="C13" s="1">
-        <v>-0.36665564076152302</v>
-      </c>
-      <c r="D13" s="1">
-        <v>-7.8836027162311903E-2</v>
-      </c>
-      <c r="E13" s="1">
-        <v>0.12905749927608701</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0.16148964260516799</v>
-      </c>
-      <c r="G13" s="1">
-        <v>-0.38252006509334002</v>
-      </c>
-      <c r="H13" s="1">
-        <v>-5.2490700066583101E-2</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0.325880456745269</v>
-      </c>
-      <c r="J13" s="1">
-        <v>7.3923906775444304E-2</v>
-      </c>
-      <c r="K13" s="1">
-        <v>-6.1146088747856403E-2</v>
-      </c>
-      <c r="L13" s="1">
-        <v>5.4432101753386104E-3</v>
-      </c>
-      <c r="M13" s="1">
-        <v>1</v>
-      </c>
-      <c r="N13" s="1">
-        <v>-0.35311686153729099</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="1">
-        <v>-0.29715961863121698</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0.27296038559656899</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.114318986140007</v>
-      </c>
-      <c r="E14" s="1">
-        <v>-9.4937052378507705E-2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>-8.0499295676102894E-2</v>
-      </c>
-      <c r="G14" s="1">
-        <v>7.5869355411817802E-2</v>
-      </c>
-      <c r="H14" s="1">
-        <v>3.2889607442615598E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0.42567118093025302</v>
-      </c>
-      <c r="J14" s="1">
-        <v>9.6134343157274496E-2</v>
-      </c>
-      <c r="K14" s="1">
-        <v>-0.30605279814150899</v>
-      </c>
-      <c r="L14" s="1">
-        <v>0.11534585868527999</v>
-      </c>
-      <c r="M14" s="1">
-        <v>-0.35311686153729099</v>
-      </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
